--- a/src/main/java/com/capsulecrm/testdata/Users.xlsx
+++ b/src/main/java/com/capsulecrm/testdata/Users.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>PartyName</t>
   </si>
@@ -107,19 +107,16 @@
     <t>Days</t>
   </si>
   <si>
-    <t>tom.peter@abc.com</t>
-  </si>
-  <si>
     <t>tomabc</t>
   </si>
   <si>
-    <t>tom10</t>
-  </si>
-  <si>
-    <t>tom2</t>
-  </si>
-  <si>
-    <t>tom2@qbc.com</t>
+    <t>mick</t>
+  </si>
+  <si>
+    <t>mick.peter@abc.com</t>
+  </si>
+  <si>
+    <t>mick@qbc.com</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -497,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -540,7 +537,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -555,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="G2">
-        <v>1234477890</v>
+        <v>1244477890</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>20</v>
@@ -578,7 +575,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,16 +596,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +621,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,16 +642,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -729,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +739,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
